--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2457.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2457.xlsx
@@ -354,7 +354,7 @@
         <v>2.357646517925706</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.997441129962908</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2457.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2457.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.078206299425189</v>
+        <v>1.717219114303589</v>
       </c>
       <c r="B1">
-        <v>2.357646517925706</v>
+        <v>2.257173299789429</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>3.34409499168396</v>
       </c>
       <c r="D1">
-        <v>2.997441129962908</v>
+        <v>3.881433963775635</v>
       </c>
       <c r="E1">
-        <v>0.9644042377877987</v>
+        <v>0.6720036864280701</v>
       </c>
     </row>
   </sheetData>
